--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_16.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_16.xlsx
@@ -512,144 +512,144 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9989121198394326</v>
+        <v>0.9472377380421032</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8229708257230934</v>
+        <v>0.7160737413521071</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8064928271388169</v>
+        <v>0.7738772177464992</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9998079470862192</v>
+        <v>0.9352957026509414</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004528330211316144</v>
+        <v>0.1693820136515304</v>
       </c>
       <c r="G2" t="n">
-        <v>1.183794903534069</v>
+        <v>1.898616198938669</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6921639371338976</v>
+        <v>0.8088280807685259</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0008004385281193204</v>
+        <v>0.2429646501089849</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1920964144062824</v>
+        <v>1.20156261373549</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06729286894847138</v>
+        <v>0.4115604617204262</v>
       </c>
       <c r="L2" t="n">
-        <v>1.069624330276312</v>
+        <v>0.9281535156318002</v>
       </c>
       <c r="M2" t="n">
-        <v>0.06835266436621985</v>
+        <v>0.4180421275829969</v>
       </c>
       <c r="N2" t="n">
-        <v>140.7948040284257</v>
+        <v>37.55119735838555</v>
       </c>
       <c r="O2" t="n">
-        <v>282.1299765716421</v>
+        <v>74.51578094661137</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_2</t>
+          <t>model_1_16_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9989829032223699</v>
+        <v>0.947231771759602</v>
       </c>
       <c r="C3" t="n">
-        <v>0.822939954247353</v>
+        <v>0.7160089720179451</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8062121298274459</v>
+        <v>0.7738952701568736</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997933010096006</v>
+        <v>0.9349467450070522</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004233692490147449</v>
+        <v>0.1694011671318125</v>
       </c>
       <c r="G3" t="n">
-        <v>1.184001341234495</v>
+        <v>1.899049311774445</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6931679751409063</v>
+        <v>0.8087635083433555</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0008614804763016073</v>
+        <v>0.2442749861349374</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1876875290924371</v>
+        <v>1.203535995809489</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06506683095208686</v>
+        <v>0.4115837304022263</v>
       </c>
       <c r="L3" t="n">
-        <v>1.065094193768324</v>
+        <v>0.9281453913322241</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06609156849661389</v>
+        <v>0.4180657627232752</v>
       </c>
       <c r="N3" t="n">
-        <v>140.9293614751842</v>
+        <v>37.55097121397947</v>
       </c>
       <c r="O3" t="n">
-        <v>282.2645340184006</v>
+        <v>74.51555480220529</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_1</t>
+          <t>model_1_16_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.998917324828451</v>
+        <v>0.9472256088904977</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8229165928942742</v>
+        <v>0.715944384108897</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8063526029681273</v>
+        <v>0.7739154664222084</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9998301830542276</v>
+        <v>0.9346033013099166</v>
       </c>
       <c r="F4" t="n">
-        <v>0.004506664305570847</v>
+        <v>0.1694209517115488</v>
       </c>
       <c r="G4" t="n">
-        <v>1.184157558710103</v>
+        <v>1.89948121141965</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6926655108617898</v>
+        <v>0.8086912674732999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0007077634150291702</v>
+        <v>0.245564617289674</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1935658621263431</v>
+        <v>1.205328136354932</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06713169374871192</v>
+        <v>0.4116077643965779</v>
       </c>
       <c r="L4" t="n">
-        <v>1.069291210979138</v>
+        <v>0.9281369993402522</v>
       </c>
       <c r="M4" t="n">
-        <v>0.06818895081818027</v>
+        <v>0.4180901752290127</v>
       </c>
       <c r="N4" t="n">
-        <v>140.8043960418947</v>
+        <v>37.5507376450516</v>
       </c>
       <c r="O4" t="n">
-        <v>282.1395685851111</v>
+        <v>74.51532123327742</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9990011929251336</v>
+        <v>0.9472192613346376</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8227913506100164</v>
+        <v>0.7158799209319879</v>
       </c>
       <c r="D5" t="n">
-        <v>0.80609708625843</v>
+        <v>0.7739376664309776</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9997836158358289</v>
+        <v>0.9342648937079195</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00415756111411704</v>
+        <v>0.169441329188811</v>
       </c>
       <c r="G5" t="n">
-        <v>1.184995054441622</v>
+        <v>1.899912276980466</v>
       </c>
       <c r="H5" t="n">
-        <v>0.693579479316667</v>
+        <v>0.8086118593291627</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0009018463634201024</v>
+        <v>0.2468353379061098</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1849941580554162</v>
+        <v>1.206957847400328</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06447915255427168</v>
+        <v>0.4116325171664782</v>
       </c>
       <c r="L5" t="n">
-        <v>1.063923652791452</v>
+        <v>0.9281283558599321</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06549463475149599</v>
+        <v>0.4181153178302952</v>
       </c>
       <c r="N5" t="n">
-        <v>140.9656532945555</v>
+        <v>37.55049710512213</v>
       </c>
       <c r="O5" t="n">
-        <v>282.3008258377719</v>
+        <v>74.51508069334795</v>
       </c>
     </row>
     <row r="6">
@@ -708,144 +708,144 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9990288948069845</v>
+        <v>0.9472127050018999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8226277022214425</v>
+        <v>0.7158156492121723</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8065514428293454</v>
+        <v>0.7739617898662566</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9997591487556947</v>
+        <v>0.9339314329747291</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004042251291359573</v>
+        <v>0.1694623768998089</v>
       </c>
       <c r="G6" t="n">
-        <v>1.186089371969547</v>
+        <v>1.900342062266818</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6919542722076103</v>
+        <v>0.8085255711999271</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001003820310205924</v>
+        <v>0.2480874830291394</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1846045654554338</v>
+        <v>1.20843889087849</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06357870155452668</v>
+        <v>0.4116580825148571</v>
       </c>
       <c r="L6" t="n">
-        <v>1.06215073235299</v>
+        <v>0.9281194280876935</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06458000254862578</v>
+        <v>0.418141285807355</v>
       </c>
       <c r="N6" t="n">
-        <v>141.0219069837577</v>
+        <v>37.55024868398484</v>
       </c>
       <c r="O6" t="n">
-        <v>282.3570795269741</v>
+        <v>74.51483227221065</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_6</t>
+          <t>model_1_16_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9990730938146203</v>
+        <v>0.9472060765843249</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8226198172285052</v>
+        <v>0.7157515437918169</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8067382988825427</v>
+        <v>0.7739882367957361</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9997138209221308</v>
+        <v>0.9336034202401993</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00385827174210253</v>
+        <v>0.1694836560238363</v>
       </c>
       <c r="G7" t="n">
-        <v>1.186142098953626</v>
+        <v>1.900770735507912</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6912858989398598</v>
+        <v>0.8084309720666599</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001192737747939654</v>
+        <v>0.2493191709160571</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1827583018931808</v>
+        <v>1.20976269620451</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06211498806328896</v>
+        <v>0.4116839273324091</v>
       </c>
       <c r="L7" t="n">
-        <v>1.059321995864302</v>
+        <v>0.9281104021573785</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06309323703307776</v>
+        <v>0.4181675376549482</v>
       </c>
       <c r="N7" t="n">
-        <v>141.1150718619507</v>
+        <v>37.54999756289784</v>
       </c>
       <c r="O7" t="n">
-        <v>282.450244405167</v>
+        <v>74.51458115112366</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_5</t>
+          <t>model_1_16_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9990623199798691</v>
+        <v>0.9471992775396035</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8226064573288672</v>
+        <v>0.7156876178685707</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8066177624723693</v>
+        <v>0.7740166408523802</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9997473632283054</v>
+        <v>0.9332803093311048</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003903118116881606</v>
+        <v>0.1695054829100061</v>
       </c>
       <c r="G8" t="n">
-        <v>1.186231436664022</v>
+        <v>1.901198208451012</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6917170506899475</v>
+        <v>0.8083293724030061</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001052940055441275</v>
+        <v>0.2505324524474366</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1816999724158163</v>
+        <v>1.210952879620015</v>
       </c>
       <c r="K8" t="n">
-        <v>0.06247493991098835</v>
+        <v>0.4117104357555272</v>
       </c>
       <c r="L8" t="n">
-        <v>1.060011521288381</v>
+        <v>0.9281011438837155</v>
       </c>
       <c r="M8" t="n">
-        <v>0.06345885776255858</v>
+        <v>0.4181944635592317</v>
       </c>
       <c r="N8" t="n">
-        <v>141.091959056282</v>
+        <v>37.54974001026629</v>
       </c>
       <c r="O8" t="n">
-        <v>282.4271315994984</v>
+        <v>74.51432359849211</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.999147332888732</v>
+        <v>0.947192274391299</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8225105795599178</v>
+        <v>0.7156238462251625</v>
       </c>
       <c r="D9" t="n">
-        <v>0.806405841222877</v>
+        <v>0.7740465431266845</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9994983788483546</v>
+        <v>0.9329619683856153</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003549249614164223</v>
+        <v>0.169527965027294</v>
       </c>
       <c r="G9" t="n">
-        <v>1.186872571746463</v>
+        <v>1.901624649724124</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6924750807114814</v>
+        <v>0.8082224137016528</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002090657665079124</v>
+        <v>0.2517278227644804</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1780302028097895</v>
+        <v>1.21202465496359</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05957557900821631</v>
+        <v>0.4117377381626489</v>
       </c>
       <c r="L9" t="n">
-        <v>1.05457069512115</v>
+        <v>0.9280916076817689</v>
       </c>
       <c r="M9" t="n">
-        <v>0.06051383482386546</v>
+        <v>0.4182221959519732</v>
       </c>
       <c r="N9" t="n">
-        <v>141.2820381482594</v>
+        <v>37.54947476071693</v>
       </c>
       <c r="O9" t="n">
-        <v>282.6172106914758</v>
+        <v>74.51405834894275</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9992322038089363</v>
+        <v>0.9471851311825981</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8213307064606694</v>
+        <v>0.7155602175761318</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8052176189715726</v>
+        <v>0.7740782969910797</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9994114050639883</v>
+        <v>0.9326482837411142</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003195972143029279</v>
+        <v>0.1695508967786784</v>
       </c>
       <c r="G10" t="n">
-        <v>1.194762388593953</v>
+        <v>1.902050134793175</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6967252828073124</v>
+        <v>0.8081088319699063</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002453147182017937</v>
+        <v>0.2529057086703364</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1590507841273654</v>
+        <v>1.212976856525889</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05653292972267826</v>
+        <v>0.4117655847429195</v>
       </c>
       <c r="L10" t="n">
-        <v>1.049138956228077</v>
+        <v>0.9280818807592824</v>
       </c>
       <c r="M10" t="n">
-        <v>0.05742326685361361</v>
+        <v>0.4182504810880466</v>
       </c>
       <c r="N10" t="n">
-        <v>141.4917279346294</v>
+        <v>37.54920424251008</v>
       </c>
       <c r="O10" t="n">
-        <v>282.8269004778458</v>
+        <v>74.51378783073589</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9992752961751143</v>
+        <v>0.9471777463235733</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8213089730792212</v>
+        <v>0.7154967403683092</v>
       </c>
       <c r="D11" t="n">
-        <v>0.805801095409663</v>
+        <v>0.7741112914503931</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9992630726806129</v>
+        <v>0.9323389830903855</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003016599018383269</v>
+        <v>0.1695746042970016</v>
       </c>
       <c r="G11" t="n">
-        <v>1.19490771981577</v>
+        <v>1.90247460717417</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6946382214201705</v>
+        <v>0.8079908127020708</v>
       </c>
       <c r="I11" t="n">
-        <v>0.003071367193805729</v>
+        <v>0.254067132678658</v>
       </c>
       <c r="J11" t="n">
-        <v>0.154079457592659</v>
+        <v>1.213827429303304</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0549235743409264</v>
+        <v>0.4117943713760566</v>
       </c>
       <c r="L11" t="n">
-        <v>1.046381044792682</v>
+        <v>0.928071824781036</v>
       </c>
       <c r="M11" t="n">
-        <v>0.05578856573336433</v>
+        <v>0.4182797210818796</v>
       </c>
       <c r="N11" t="n">
-        <v>141.6072504700704</v>
+        <v>37.54892461130232</v>
       </c>
       <c r="O11" t="n">
-        <v>282.9424230132868</v>
+        <v>74.51350819952813</v>
       </c>
     </row>
   </sheetData>
